--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1705.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1705.xlsx
@@ -354,7 +354,7 @@
         <v>0.8277867460247034</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.619767522910266</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1705.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1705.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.2963173589775389</v>
+        <v>0.733350932598114</v>
       </c>
       <c r="B1">
-        <v>0.8277867460247034</v>
+        <v>2.255666255950928</v>
       </c>
       <c r="C1">
         <v>15</v>
       </c>
       <c r="D1">
-        <v>2.619767522910266</v>
+        <v>0.8924477100372314</v>
       </c>
       <c r="E1">
-        <v>1.769555460926883</v>
+        <v>0.8994224667549133</v>
       </c>
     </row>
   </sheetData>
